--- a/data/sleepscore.xlsx
+++ b/data/sleepscore.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\SleepQualityAnalyser\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27234022-20E2-4D30-BB1F-DCAE146B3E7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF85218-FAD7-45F9-A8E0-A574F6DECA88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10296" yWindow="2544" windowWidth="17280" windowHeight="8964" xr2:uid="{51C9D1EC-6C4D-4A75-B5BB-0B1FC765CB40}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{51C9D1EC-6C4D-4A75-B5BB-0B1FC765CB40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,12 +31,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Date</t>
   </si>
   <si>
     <t>SleepScore</t>
+  </si>
+  <si>
+    <t>DateEpoch</t>
   </si>
 </sst>
 </file>
@@ -72,9 +75,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,901 +393,1299 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FC60302-8EDE-4015-891B-06235A3B05CC}">
-  <dimension ref="A1:B99"/>
+  <dimension ref="A1:C99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <f>DATE(2019,8,1)</f>
         <v>43678</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
+        <f>(A2-DATE(1970,1,1))*86400</f>
+        <v>1564617600</v>
+      </c>
+      <c r="C2">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <f>A2+1</f>
         <v>43679</v>
       </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="2">
+        <f t="shared" ref="B3:B66" si="0">(A3-DATE(1970,1,1))*86400</f>
+        <v>1564704000</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A67" si="0">A3+1</f>
+        <f t="shared" ref="A4:A67" si="1">A3+1</f>
         <v>43680</v>
       </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
+        <f t="shared" si="0"/>
+        <v>1564790400</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43681</v>
       </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <f t="shared" si="0"/>
+        <v>1564876800</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43682</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
+        <f t="shared" si="0"/>
+        <v>1564963200</v>
+      </c>
+      <c r="C6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43683</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>1565049600</v>
+      </c>
+      <c r="C7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43684</v>
       </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>1565136000</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43685</v>
       </c>
-      <c r="B9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>1565222400</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43686</v>
       </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>1565308800</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43687</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
+        <v>1565395200</v>
+      </c>
+      <c r="C11">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43688</v>
       </c>
-      <c r="B12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <f t="shared" si="0"/>
+        <v>1565481600</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43689</v>
       </c>
-      <c r="B13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
+        <v>1565568000</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43690</v>
       </c>
-      <c r="B14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>1565654400</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43691</v>
       </c>
-      <c r="B15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
+        <v>1565740800</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43692</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
+        <f t="shared" si="0"/>
+        <v>1565827200</v>
+      </c>
+      <c r="C16">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43693</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
+        <f t="shared" si="0"/>
+        <v>1565913600</v>
+      </c>
+      <c r="C17">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43694</v>
       </c>
-      <c r="B18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="2">
+        <f t="shared" si="0"/>
+        <v>1566000000</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43695</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
+        <f t="shared" si="0"/>
+        <v>1566086400</v>
+      </c>
+      <c r="C19">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43696</v>
       </c>
-      <c r="B20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="2">
+        <f t="shared" si="0"/>
+        <v>1566172800</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43697</v>
       </c>
-      <c r="B21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="2">
+        <f t="shared" si="0"/>
+        <v>1566259200</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43698</v>
       </c>
-      <c r="B22">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="2">
+        <f t="shared" si="0"/>
+        <v>1566345600</v>
+      </c>
+      <c r="C22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43699</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
+        <f t="shared" si="0"/>
+        <v>1566432000</v>
+      </c>
+      <c r="C23">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43700</v>
       </c>
-      <c r="B24">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="2">
+        <f t="shared" si="0"/>
+        <v>1566518400</v>
+      </c>
+      <c r="C24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43701</v>
       </c>
-      <c r="B25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="2">
+        <f t="shared" si="0"/>
+        <v>1566604800</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43702</v>
       </c>
-      <c r="B26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="2">
+        <f t="shared" si="0"/>
+        <v>1566691200</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43703</v>
       </c>
-      <c r="B27">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="2">
+        <f t="shared" si="0"/>
+        <v>1566777600</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43704</v>
       </c>
-      <c r="B28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="2">
+        <f t="shared" si="0"/>
+        <v>1566864000</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43705</v>
       </c>
-      <c r="B29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="2">
+        <f t="shared" si="0"/>
+        <v>1566950400</v>
+      </c>
+      <c r="C29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43706</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2">
+        <f t="shared" si="0"/>
+        <v>1567036800</v>
+      </c>
+      <c r="C30">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43707</v>
       </c>
-      <c r="B31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="2">
+        <f t="shared" si="0"/>
+        <v>1567123200</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43708</v>
       </c>
-      <c r="B32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B32" s="2">
+        <f t="shared" si="0"/>
+        <v>1567209600</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43709</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="2">
+        <f t="shared" si="0"/>
+        <v>1567296000</v>
+      </c>
+      <c r="C33">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43710</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="2">
+        <f t="shared" si="0"/>
+        <v>1567382400</v>
+      </c>
+      <c r="C34">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43711</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="2">
+        <f t="shared" si="0"/>
+        <v>1567468800</v>
+      </c>
+      <c r="C35">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43712</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="2">
+        <f t="shared" si="0"/>
+        <v>1567555200</v>
+      </c>
+      <c r="C36">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43713</v>
       </c>
-      <c r="B37">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="2">
+        <f t="shared" si="0"/>
+        <v>1567641600</v>
+      </c>
+      <c r="C37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43714</v>
       </c>
-      <c r="B38">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="2">
+        <f t="shared" si="0"/>
+        <v>1567728000</v>
+      </c>
+      <c r="C38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43715</v>
       </c>
-      <c r="B39">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="2">
+        <f t="shared" si="0"/>
+        <v>1567814400</v>
+      </c>
+      <c r="C39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43716</v>
       </c>
-      <c r="B40">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B40" s="2">
+        <f t="shared" si="0"/>
+        <v>1567900800</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43717</v>
       </c>
-      <c r="B41">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B41" s="2">
+        <f t="shared" si="0"/>
+        <v>1567987200</v>
+      </c>
+      <c r="C41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43718</v>
       </c>
-      <c r="B42">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="2">
+        <f t="shared" si="0"/>
+        <v>1568073600</v>
+      </c>
+      <c r="C42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43719</v>
       </c>
-      <c r="B43">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B43" s="2">
+        <f t="shared" si="0"/>
+        <v>1568160000</v>
+      </c>
+      <c r="C43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43720</v>
       </c>
-      <c r="B44">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B44" s="2">
+        <f t="shared" si="0"/>
+        <v>1568246400</v>
+      </c>
+      <c r="C44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43721</v>
       </c>
-      <c r="B45">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B45" s="2">
+        <f t="shared" si="0"/>
+        <v>1568332800</v>
+      </c>
+      <c r="C45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43722</v>
       </c>
-      <c r="B46">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B46" s="2">
+        <f t="shared" si="0"/>
+        <v>1568419200</v>
+      </c>
+      <c r="C46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43723</v>
       </c>
-      <c r="B47">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B47" s="2">
+        <f t="shared" si="0"/>
+        <v>1568505600</v>
+      </c>
+      <c r="C47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43724</v>
       </c>
-      <c r="B48">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B48" s="2">
+        <f t="shared" si="0"/>
+        <v>1568592000</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43725</v>
       </c>
-      <c r="B49">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="2">
+        <f t="shared" si="0"/>
+        <v>1568678400</v>
+      </c>
+      <c r="C49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43726</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="2">
+        <f t="shared" si="0"/>
+        <v>1568764800</v>
+      </c>
+      <c r="C50">
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43727</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="2">
+        <f t="shared" si="0"/>
+        <v>1568851200</v>
+      </c>
+      <c r="C51">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43728</v>
       </c>
-      <c r="B52">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B52" s="2">
+        <f t="shared" si="0"/>
+        <v>1568937600</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43729</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="2">
+        <f t="shared" si="0"/>
+        <v>1569024000</v>
+      </c>
+      <c r="C53">
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43730</v>
       </c>
-      <c r="B54">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B54" s="2">
+        <f t="shared" si="0"/>
+        <v>1569110400</v>
+      </c>
+      <c r="C54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43731</v>
       </c>
-      <c r="B55">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B55" s="2">
+        <f t="shared" si="0"/>
+        <v>1569196800</v>
+      </c>
+      <c r="C55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43732</v>
       </c>
-      <c r="B56">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B56" s="2">
+        <f t="shared" si="0"/>
+        <v>1569283200</v>
+      </c>
+      <c r="C56">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43733</v>
       </c>
-      <c r="B57">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B57" s="2">
+        <f t="shared" si="0"/>
+        <v>1569369600</v>
+      </c>
+      <c r="C57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43734</v>
       </c>
-      <c r="B58">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B58" s="2">
+        <f t="shared" si="0"/>
+        <v>1569456000</v>
+      </c>
+      <c r="C58">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43735</v>
       </c>
-      <c r="B59">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B59" s="2">
+        <f t="shared" si="0"/>
+        <v>1569542400</v>
+      </c>
+      <c r="C59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43736</v>
       </c>
-      <c r="B60">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B60" s="2">
+        <f t="shared" si="0"/>
+        <v>1569628800</v>
+      </c>
+      <c r="C60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43737</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="2">
+        <f t="shared" si="0"/>
+        <v>1569715200</v>
+      </c>
+      <c r="C61">
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43738</v>
       </c>
-      <c r="B62">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B62" s="2">
+        <f t="shared" si="0"/>
+        <v>1569801600</v>
+      </c>
+      <c r="C62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43739</v>
       </c>
-      <c r="B63">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B63" s="2">
+        <f t="shared" si="0"/>
+        <v>1569888000</v>
+      </c>
+      <c r="C63">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43740</v>
       </c>
-      <c r="B64">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B64" s="2">
+        <f t="shared" si="0"/>
+        <v>1569974400</v>
+      </c>
+      <c r="C64">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43741</v>
       </c>
-      <c r="B65">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B65" s="2">
+        <f t="shared" si="0"/>
+        <v>1570060800</v>
+      </c>
+      <c r="C65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43742</v>
       </c>
-      <c r="B66">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B66" s="2">
+        <f t="shared" si="0"/>
+        <v>1570147200</v>
+      </c>
+      <c r="C66">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43743</v>
       </c>
-      <c r="B67">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B67" s="2">
+        <f t="shared" ref="B67:B99" si="2">(A67-DATE(1970,1,1))*86400</f>
+        <v>1570233600</v>
+      </c>
+      <c r="C67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <f t="shared" ref="A68:A99" si="1">A67+1</f>
+        <f t="shared" ref="A68:A99" si="3">A67+1</f>
         <v>43744</v>
       </c>
-      <c r="B68">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B68" s="2">
+        <f t="shared" si="2"/>
+        <v>1570320000</v>
+      </c>
+      <c r="C68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>43745</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="2">
+        <f t="shared" si="2"/>
+        <v>1570406400</v>
+      </c>
+      <c r="C69">
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>43746</v>
       </c>
-      <c r="B70">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B70" s="2">
+        <f t="shared" si="2"/>
+        <v>1570492800</v>
+      </c>
+      <c r="C70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>43747</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="2">
+        <f t="shared" si="2"/>
+        <v>1570579200</v>
+      </c>
+      <c r="C71">
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>43748</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="2">
+        <f t="shared" si="2"/>
+        <v>1570665600</v>
+      </c>
+      <c r="C72">
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>43749</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="2">
+        <f t="shared" si="2"/>
+        <v>1570752000</v>
+      </c>
+      <c r="C73">
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>43750</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="2">
+        <f t="shared" si="2"/>
+        <v>1570838400</v>
+      </c>
+      <c r="C74">
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>43751</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="2">
+        <f t="shared" si="2"/>
+        <v>1570924800</v>
+      </c>
+      <c r="C75">
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>43752</v>
       </c>
-      <c r="B76">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B76" s="2">
+        <f t="shared" si="2"/>
+        <v>1571011200</v>
+      </c>
+      <c r="C76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>43753</v>
       </c>
-      <c r="B77">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B77" s="2">
+        <f t="shared" si="2"/>
+        <v>1571097600</v>
+      </c>
+      <c r="C77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>43754</v>
       </c>
-      <c r="B78">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B78" s="2">
+        <f t="shared" si="2"/>
+        <v>1571184000</v>
+      </c>
+      <c r="C78">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>43755</v>
       </c>
-      <c r="B79">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B79" s="2">
+        <f t="shared" si="2"/>
+        <v>1571270400</v>
+      </c>
+      <c r="C79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>43756</v>
       </c>
-      <c r="B80">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B80" s="2">
+        <f t="shared" si="2"/>
+        <v>1571356800</v>
+      </c>
+      <c r="C80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>43757</v>
       </c>
-      <c r="B81">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B81" s="2">
+        <f t="shared" si="2"/>
+        <v>1571443200</v>
+      </c>
+      <c r="C81">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>43758</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="2">
+        <f t="shared" si="2"/>
+        <v>1571529600</v>
+      </c>
+      <c r="C82">
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>43759</v>
       </c>
-      <c r="B83">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B83" s="2">
+        <f t="shared" si="2"/>
+        <v>1571616000</v>
+      </c>
+      <c r="C83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>43760</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="2">
+        <f t="shared" si="2"/>
+        <v>1571702400</v>
+      </c>
+      <c r="C84">
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>43761</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="2">
+        <f t="shared" si="2"/>
+        <v>1571788800</v>
+      </c>
+      <c r="C85">
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>43762</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="2">
+        <f t="shared" si="2"/>
+        <v>1571875200</v>
+      </c>
+      <c r="C86">
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>43763</v>
       </c>
-      <c r="B87">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B87" s="2">
+        <f t="shared" si="2"/>
+        <v>1571961600</v>
+      </c>
+      <c r="C87">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>43764</v>
       </c>
-      <c r="B88">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B88" s="2">
+        <f t="shared" si="2"/>
+        <v>1572048000</v>
+      </c>
+      <c r="C88">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>43765</v>
       </c>
-      <c r="B89">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B89" s="2">
+        <f t="shared" si="2"/>
+        <v>1572134400</v>
+      </c>
+      <c r="C89">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>43766</v>
       </c>
-      <c r="B90">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B90" s="2">
+        <f t="shared" si="2"/>
+        <v>1572220800</v>
+      </c>
+      <c r="C90">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>43767</v>
       </c>
-      <c r="B91">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B91" s="2">
+        <f t="shared" si="2"/>
+        <v>1572307200</v>
+      </c>
+      <c r="C91">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>43768</v>
       </c>
-      <c r="B92">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B92" s="2">
+        <f t="shared" si="2"/>
+        <v>1572393600</v>
+      </c>
+      <c r="C92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>43769</v>
       </c>
-      <c r="B93">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B93" s="2">
+        <f t="shared" si="2"/>
+        <v>1572480000</v>
+      </c>
+      <c r="C93">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>43770</v>
       </c>
-      <c r="B94">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B94" s="2">
+        <f t="shared" si="2"/>
+        <v>1572566400</v>
+      </c>
+      <c r="C94">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>43771</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="2">
+        <f t="shared" si="2"/>
+        <v>1572652800</v>
+      </c>
+      <c r="C95">
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>43772</v>
       </c>
-      <c r="B96">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B96" s="2">
+        <f t="shared" si="2"/>
+        <v>1572739200</v>
+      </c>
+      <c r="C96">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>43773</v>
       </c>
-      <c r="B97">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B97" s="2">
+        <f t="shared" si="2"/>
+        <v>1572825600</v>
+      </c>
+      <c r="C97">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>43774</v>
       </c>
-      <c r="B98">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B98" s="2">
+        <f t="shared" si="2"/>
+        <v>1572912000</v>
+      </c>
+      <c r="C98">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>43775</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="2">
+        <f t="shared" si="2"/>
+        <v>1572998400</v>
+      </c>
+      <c r="C99">
         <v>8</v>
       </c>
     </row>
